--- a/WebContent/UploadedFiles/test.xlsx
+++ b/WebContent/UploadedFiles/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -28,28 +28,22 @@
     <t>salary</t>
   </si>
   <si>
-    <t>Krishna Biswas</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>Avi Biswas</t>
-  </si>
-  <si>
-    <t>Kishu Biswas</t>
-  </si>
-  <si>
-    <t>Riky Biswas</t>
-  </si>
-  <si>
-    <t>Isha Biswas</t>
-  </si>
-  <si>
-    <t>Babu Biswas</t>
-  </si>
-  <si>
-    <t>Krishna</t>
+    <t>Avijit</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>Subhasis</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Thami</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -391,18 +385,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,114 +415,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>20001</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3">
-        <v>20002</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>294</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>295</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>296</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>297</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>298</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>20008</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
